--- a/hz-ms-report/src/main/resources/excel/report_27.xlsx
+++ b/hz-ms-report/src/main/resources/excel/report_27.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216698C5-5805-41F4-9088-E035F2C9A6DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +68,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一级支行</t>
-  </si>
-  <si>
     <t>户名</t>
   </si>
   <si>
@@ -107,21 +105,25 @@
   </si>
   <si>
     <t>ASSURE_MEANS_MAIN</t>
-  </si>
-  <si>
-    <t>$MAIN_BR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$MAIN_BR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,11 +283,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -327,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +369,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,6 +421,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,28 +614,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="1" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="25.8" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -606,7 +651,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -621,49 +666,49 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="28.8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
@@ -684,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>8</v>
@@ -698,7 +743,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -713,7 +758,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -728,7 +773,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -743,7 +788,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -758,7 +803,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -773,7 +818,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -788,7 +833,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -803,7 +848,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -818,7 +863,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -847,12 +892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,12 +906,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
